--- a/Lease_Contract_Extraction_Phase_I_2.0/Data/Plot100_Contract_Lease_Master.xlsx
+++ b/Lease_Contract_Extraction_Phase_I_2.0/Data/Plot100_Contract_Lease_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lease_Data_101\Lease_Contract_Data\Lease_Contract_Extraction_Phase_I_2.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CCD2C0-7E1D-4461-8367-FE63DCCE46AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEF4FF-8AE3-4CB3-AF92-73A733E035C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="45" windowWidth="15330" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
